--- a/onboarding_prompts.xlsx
+++ b/onboarding_prompts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\MSc BA 2023-2024\Capstone\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E92791-41F4-4D4F-BB4A-7E251013E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB52D7-8245-451F-A38A-A5CBD1DDE42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>prompt_id</t>
   </si>
@@ -37,13 +37,22 @@
   </si>
   <si>
     <t>Generate a welcome email communication for a customer success manager who has been assigned to a new client. The content needs to be hyper-personalized, welcoming and exciting. The content, once read by the client, should feel as if the client is happy to be in partnership with the customer success manager.</t>
+  </si>
+  <si>
+    <t>Compose a post-onboarding email that builds rapport with the new client and positions the CSM as a trusted advisor. Make the email feel more personalized.</t>
+  </si>
+  <si>
+    <t>Craft an email to a new client emphasizing the value of the partnership and outlining how the CSM will be their partner in achieving business goals</t>
+  </si>
+  <si>
+    <t>Write a warm welcome email to a newly onboarded client, expressing excitement about the partnership and introducing the CSM as their dedicated success manager.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +63,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -78,10 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,23 +382,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -399,11 +418,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+    <row r="4" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
